--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Amh-Acvr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Amh-Acvr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,6 +88,9 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Acvr1</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1560025</v>
+        <v>0.7169805</v>
       </c>
       <c r="H2">
-        <v>0.312005</v>
+        <v>1.433961</v>
       </c>
       <c r="I2">
-        <v>0.1050366275703263</v>
+        <v>0.2270158894336058</v>
       </c>
       <c r="J2">
-        <v>0.07934069952454832</v>
+        <v>0.1679489027918341</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.2840475</v>
+        <v>8.424749</v>
       </c>
       <c r="N2">
-        <v>16.568095</v>
+        <v>16.849498</v>
       </c>
       <c r="O2">
-        <v>0.162064909128062</v>
+        <v>0.1980372819757593</v>
       </c>
       <c r="P2">
-        <v>0.1267883207199013</v>
+        <v>0.1585662899160533</v>
       </c>
       <c r="Q2">
-        <v>1.29233212011875</v>
+        <v>6.0403807503945</v>
       </c>
       <c r="R2">
-        <v>5.169328480475</v>
+        <v>24.161523001578</v>
       </c>
       <c r="S2">
-        <v>0.01702275150230302</v>
+        <v>0.0449576097087408</v>
       </c>
       <c r="T2">
-        <v>0.01005947405745975</v>
+        <v>0.02663103441117302</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1560025</v>
+        <v>0.7169805</v>
       </c>
       <c r="H3">
-        <v>0.312005</v>
+        <v>1.433961</v>
       </c>
       <c r="I3">
-        <v>0.1050366275703263</v>
+        <v>0.2270158894336058</v>
       </c>
       <c r="J3">
-        <v>0.07934069952454832</v>
+        <v>0.1679489027918341</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>31.672871</v>
       </c>
       <c r="O3">
-        <v>0.2065440016062932</v>
+        <v>0.2481739331426511</v>
       </c>
       <c r="P3">
-        <v>0.2423785067907964</v>
+        <v>0.2980652388254983</v>
       </c>
       <c r="Q3">
-        <v>1.647015686059167</v>
+        <v>7.5696102953385</v>
       </c>
       <c r="R3">
-        <v>9.882094116355001</v>
+        <v>45.417661772031</v>
       </c>
       <c r="S3">
-        <v>0.0216946853736051</v>
+        <v>0.05633942616661516</v>
       </c>
       <c r="T3">
-        <v>0.01923048027849728</v>
+        <v>0.05005972982112844</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1560025</v>
+        <v>0.7169805</v>
       </c>
       <c r="H4">
-        <v>0.312005</v>
+        <v>1.433961</v>
       </c>
       <c r="I4">
-        <v>0.1050366275703263</v>
+        <v>0.2270158894336058</v>
       </c>
       <c r="J4">
-        <v>0.07934069952454832</v>
+        <v>0.1679489027918341</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.931556333333333</v>
+        <v>5.743874333333333</v>
       </c>
       <c r="N4">
-        <v>17.794669</v>
+        <v>17.231623</v>
       </c>
       <c r="O4">
-        <v>0.1160419635630586</v>
+        <v>0.1350190089916815</v>
       </c>
       <c r="P4">
-        <v>0.13617475034254</v>
+        <v>0.1621623699615343</v>
       </c>
       <c r="Q4">
-        <v>0.9253376168908334</v>
+        <v>4.1182458914505</v>
       </c>
       <c r="R4">
-        <v>5.552025701345</v>
+        <v>24.709475348703</v>
       </c>
       <c r="S4">
-        <v>0.01218865650930236</v>
+        <v>0.0306514604166906</v>
       </c>
       <c r="T4">
-        <v>0.01080419994975785</v>
+        <v>0.02723499210916316</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1560025</v>
+        <v>0.7169805</v>
       </c>
       <c r="H5">
-        <v>0.312005</v>
+        <v>1.433961</v>
       </c>
       <c r="I5">
-        <v>0.1050366275703263</v>
+        <v>0.2270158894336058</v>
       </c>
       <c r="J5">
-        <v>0.07934069952454832</v>
+        <v>0.1679489027918341</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.3875515</v>
+        <v>12.9373935</v>
       </c>
       <c r="N5">
-        <v>28.775103</v>
+        <v>25.874787</v>
       </c>
       <c r="O5">
-        <v>0.2814707697442357</v>
+        <v>0.3041142524947457</v>
       </c>
       <c r="P5">
-        <v>0.2202031668645185</v>
+        <v>0.2435009622813764</v>
       </c>
       <c r="Q5">
-        <v>2.244494002878751</v>
+        <v>9.27585886032675</v>
       </c>
       <c r="R5">
-        <v>8.977976011515002</v>
+        <v>37.103435441307</v>
       </c>
       <c r="S5">
-        <v>0.02956474041355836</v>
+        <v>0.06903876751953085</v>
       </c>
       <c r="T5">
-        <v>0.01747107329655173</v>
+        <v>0.04089571944391294</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.1560025</v>
+        <v>0.7169805</v>
       </c>
       <c r="H6">
-        <v>0.312005</v>
+        <v>1.433961</v>
       </c>
       <c r="I6">
-        <v>0.1050366275703263</v>
+        <v>0.2270158894336058</v>
       </c>
       <c r="J6">
-        <v>0.07934069952454832</v>
+        <v>0.1679489027918341</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.493894666666667</v>
+        <v>0.882742</v>
       </c>
       <c r="N6">
-        <v>19.481684</v>
+        <v>2.648226</v>
       </c>
       <c r="O6">
-        <v>0.1270432658722128</v>
+        <v>0.02075027117909931</v>
       </c>
       <c r="P6">
-        <v>0.1490847317785038</v>
+        <v>0.02492177343676531</v>
       </c>
       <c r="Q6">
-        <v>1.013063802736667</v>
+        <v>0.6329088005310001</v>
       </c>
       <c r="R6">
-        <v>6.078382816420001</v>
+        <v>3.797452803186</v>
       </c>
       <c r="S6">
-        <v>0.01334419620273756</v>
+        <v>0.004710641267711747</v>
       </c>
       <c r="T6">
-        <v>0.01182848690773615</v>
+        <v>0.00418558450433141</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.1560025</v>
+        <v>0.7169805</v>
       </c>
       <c r="H7">
-        <v>0.312005</v>
+        <v>1.433961</v>
       </c>
       <c r="I7">
-        <v>0.1050366275703263</v>
+        <v>0.2270158894336058</v>
       </c>
       <c r="J7">
-        <v>0.07934069952454832</v>
+        <v>0.1679489027918341</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.460941333333333</v>
+        <v>3.994844666666667</v>
       </c>
       <c r="N7">
-        <v>16.382824</v>
+        <v>11.984534</v>
       </c>
       <c r="O7">
-        <v>0.1068350900861377</v>
+        <v>0.09390525221606305</v>
       </c>
       <c r="P7">
-        <v>0.1253705235037399</v>
+        <v>0.1127833655787726</v>
       </c>
       <c r="Q7">
-        <v>0.8519205003533334</v>
+        <v>2.864225726529</v>
       </c>
       <c r="R7">
-        <v>5.11152300212</v>
+        <v>17.185354359174</v>
       </c>
       <c r="S7">
-        <v>0.01122159756881991</v>
+        <v>0.02131798435431663</v>
       </c>
       <c r="T7">
-        <v>0.009946985034545552</v>
+        <v>0.01894184250212517</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>0.39932</v>
       </c>
       <c r="I8">
-        <v>0.08962084180570332</v>
+        <v>0.04214525823627815</v>
       </c>
       <c r="J8">
-        <v>0.1015442961944284</v>
+        <v>0.04676930255623074</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.2840475</v>
+        <v>8.424749</v>
       </c>
       <c r="N8">
-        <v>16.568095</v>
+        <v>16.849498</v>
       </c>
       <c r="O8">
-        <v>0.162064909128062</v>
+        <v>0.1980372819757593</v>
       </c>
       <c r="P8">
-        <v>0.1267883207199013</v>
+        <v>0.1585662899160533</v>
       </c>
       <c r="Q8">
-        <v>1.102661949233333</v>
+        <v>1.121390256893333</v>
       </c>
       <c r="R8">
-        <v>6.6159716954</v>
+        <v>6.728341541360001</v>
       </c>
       <c r="S8">
-        <v>0.01452439358322172</v>
+        <v>0.00834633238927901</v>
       </c>
       <c r="T8">
-        <v>0.01287463079317584</v>
+        <v>0.007416034788302895</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>0.39932</v>
       </c>
       <c r="I9">
-        <v>0.08962084180570332</v>
+        <v>0.04214525823627815</v>
       </c>
       <c r="J9">
-        <v>0.1015442961944284</v>
+        <v>0.04676930255623074</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>31.672871</v>
       </c>
       <c r="O9">
-        <v>0.2065440016062932</v>
+        <v>0.2481739331426511</v>
       </c>
       <c r="P9">
-        <v>0.2423785067907964</v>
+        <v>0.2980652388254983</v>
       </c>
       <c r="Q9">
         <v>1.405290094191111</v>
@@ -1013,10 +1013,10 @@
         <v>12.64761084772</v>
       </c>
       <c r="S9">
-        <v>0.01851064729387454</v>
+        <v>0.01045935449980986</v>
       </c>
       <c r="T9">
-        <v>0.02461215488472791</v>
+        <v>0.01394030333612491</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1045,10 +1045,10 @@
         <v>0.39932</v>
       </c>
       <c r="I10">
-        <v>0.08962084180570332</v>
+        <v>0.04214525823627815</v>
       </c>
       <c r="J10">
-        <v>0.1015442961944284</v>
+        <v>0.04676930255623074</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.931556333333333</v>
+        <v>5.743874333333333</v>
       </c>
       <c r="N10">
-        <v>17.794669</v>
+        <v>17.231623</v>
       </c>
       <c r="O10">
-        <v>0.1160419635630586</v>
+        <v>0.1350190089916815</v>
       </c>
       <c r="P10">
-        <v>0.13617475034254</v>
+        <v>0.1621623699615343</v>
       </c>
       <c r="Q10">
-        <v>0.7895296916755555</v>
+        <v>0.7645479662622223</v>
       </c>
       <c r="R10">
-        <v>7.10576722508</v>
+        <v>6.880931696359999</v>
       </c>
       <c r="S10">
-        <v>0.01039977845930807</v>
+        <v>0.00569041100076078</v>
       </c>
       <c r="T10">
-        <v>0.01382776918298522</v>
+        <v>0.00758422094396642</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -1107,10 +1107,10 @@
         <v>0.39932</v>
       </c>
       <c r="I11">
-        <v>0.08962084180570332</v>
+        <v>0.04214525823627815</v>
       </c>
       <c r="J11">
-        <v>0.1015442961944284</v>
+        <v>0.04676930255623074</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>14.3875515</v>
+        <v>12.9373935</v>
       </c>
       <c r="N11">
-        <v>28.775103</v>
+        <v>25.874787</v>
       </c>
       <c r="O11">
-        <v>0.2814707697442357</v>
+        <v>0.3041142524947457</v>
       </c>
       <c r="P11">
-        <v>0.2202031668645185</v>
+        <v>0.2435009622813764</v>
       </c>
       <c r="Q11">
-        <v>1.91507902166</v>
+        <v>1.72205332414</v>
       </c>
       <c r="R11">
-        <v>11.49047412996</v>
+        <v>10.33231994484</v>
       </c>
       <c r="S11">
-        <v>0.02522564732817769</v>
+        <v>0.01281697370472375</v>
       </c>
       <c r="T11">
-        <v>0.0223603755990418</v>
+        <v>0.01138837017767102</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1169,10 +1169,10 @@
         <v>0.39932</v>
       </c>
       <c r="I12">
-        <v>0.08962084180570332</v>
+        <v>0.04214525823627815</v>
       </c>
       <c r="J12">
-        <v>0.1015442961944284</v>
+        <v>0.04676930255623074</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.493894666666667</v>
+        <v>0.882742</v>
       </c>
       <c r="N12">
-        <v>19.481684</v>
+        <v>2.648226</v>
       </c>
       <c r="O12">
-        <v>0.1270432658722128</v>
+        <v>0.02075027117909931</v>
       </c>
       <c r="P12">
-        <v>0.1490847317785038</v>
+        <v>0.02492177343676531</v>
       </c>
       <c r="Q12">
-        <v>0.8643806727644445</v>
+        <v>0.1174988451466667</v>
       </c>
       <c r="R12">
-        <v>7.779426054880001</v>
+        <v>1.05748960632</v>
       </c>
       <c r="S12">
-        <v>0.01138572443321349</v>
+        <v>0.0008745255373159404</v>
       </c>
       <c r="T12">
-        <v>0.0151387041617833</v>
+        <v>0.001165573962101911</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1231,10 +1231,10 @@
         <v>0.39932</v>
       </c>
       <c r="I13">
-        <v>0.08962084180570332</v>
+        <v>0.04214525823627815</v>
       </c>
       <c r="J13">
-        <v>0.1015442961944284</v>
+        <v>0.04676930255623074</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.460941333333333</v>
+        <v>3.994844666666667</v>
       </c>
       <c r="N13">
-        <v>16.382824</v>
+        <v>11.984534</v>
       </c>
       <c r="O13">
-        <v>0.1068350900861377</v>
+        <v>0.09390525221606305</v>
       </c>
       <c r="P13">
-        <v>0.1253705235037399</v>
+        <v>0.1127833655787726</v>
       </c>
       <c r="Q13">
-        <v>0.7268876977422223</v>
+        <v>0.5317404574311112</v>
       </c>
       <c r="R13">
-        <v>6.54198927968</v>
+        <v>4.78566411688</v>
       </c>
       <c r="S13">
-        <v>0.009574650707907813</v>
+        <v>0.003957661104388808</v>
       </c>
       <c r="T13">
-        <v>0.01273066157271431</v>
+        <v>0.005274799348063595</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.395809</v>
+        <v>0.3553746666666666</v>
       </c>
       <c r="H14">
-        <v>1.187427</v>
+        <v>1.066124</v>
       </c>
       <c r="I14">
-        <v>0.2664985658690295</v>
+        <v>0.1125214647197581</v>
       </c>
       <c r="J14">
-        <v>0.301954420007166</v>
+        <v>0.1248669636343257</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.2840475</v>
+        <v>8.424749</v>
       </c>
       <c r="N14">
-        <v>16.568095</v>
+        <v>16.849498</v>
       </c>
       <c r="O14">
-        <v>0.162064909128062</v>
+        <v>0.1980372819757593</v>
       </c>
       <c r="P14">
-        <v>0.1267883207199013</v>
+        <v>0.1585662899160533</v>
       </c>
       <c r="Q14">
-        <v>3.2789005569275</v>
+        <v>2.993942367625333</v>
       </c>
       <c r="R14">
-        <v>19.673403341565</v>
+        <v>17.963654205752</v>
       </c>
       <c r="S14">
-        <v>0.0431900658603231</v>
+        <v>0.02228344503703219</v>
       </c>
       <c r="T14">
-        <v>0.03828429384666034</v>
+        <v>0.01979969115657777</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.395809</v>
+        <v>0.3553746666666666</v>
       </c>
       <c r="H15">
-        <v>1.187427</v>
+        <v>1.066124</v>
       </c>
       <c r="I15">
-        <v>0.2664985658690295</v>
+        <v>0.1125214647197581</v>
       </c>
       <c r="J15">
-        <v>0.301954420007166</v>
+        <v>0.1248669636343257</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>31.672871</v>
       </c>
       <c r="O15">
-        <v>0.2065440016062932</v>
+        <v>0.2481739331426511</v>
       </c>
       <c r="P15">
-        <v>0.2423785067907964</v>
+        <v>0.2980652388254983</v>
       </c>
       <c r="Q15">
-        <v>4.178802465879667</v>
+        <v>3.751911991333777</v>
       </c>
       <c r="R15">
-        <v>37.609222192917</v>
+        <v>33.767207922004</v>
       </c>
       <c r="S15">
-        <v>0.05504368021692768</v>
+        <v>0.02792489446247442</v>
       </c>
       <c r="T15">
-        <v>0.07318726144021788</v>
+        <v>0.0372185013370801</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,10 +1396,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.395809</v>
+        <v>0.3553746666666666</v>
       </c>
       <c r="H16">
-        <v>1.187427</v>
+        <v>1.066124</v>
       </c>
       <c r="I16">
-        <v>0.2664985658690295</v>
+        <v>0.1125214647197581</v>
       </c>
       <c r="J16">
-        <v>0.301954420007166</v>
+        <v>0.1248669636343257</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.931556333333333</v>
+        <v>5.743874333333333</v>
       </c>
       <c r="N16">
-        <v>17.794669</v>
+        <v>17.231623</v>
       </c>
       <c r="O16">
-        <v>0.1160419635630586</v>
+        <v>0.1350190089916815</v>
       </c>
       <c r="P16">
-        <v>0.13617475034254</v>
+        <v>0.1621623699615343</v>
       </c>
       <c r="Q16">
-        <v>2.347763380740334</v>
+        <v>2.041227426583555</v>
       </c>
       <c r="R16">
-        <v>21.129870426663</v>
+        <v>18.371046839252</v>
       </c>
       <c r="S16">
-        <v>0.03092501687018131</v>
+        <v>0.01519253665675419</v>
       </c>
       <c r="T16">
-        <v>0.04111856775930229</v>
+        <v>0.02024872275284297</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.395809</v>
+        <v>0.3553746666666666</v>
       </c>
       <c r="H17">
-        <v>1.187427</v>
+        <v>1.066124</v>
       </c>
       <c r="I17">
-        <v>0.2664985658690295</v>
+        <v>0.1125214647197581</v>
       </c>
       <c r="J17">
-        <v>0.301954420007166</v>
+        <v>0.1248669636343257</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>14.3875515</v>
+        <v>12.9373935</v>
       </c>
       <c r="N17">
-        <v>28.775103</v>
+        <v>25.874787</v>
       </c>
       <c r="O17">
-        <v>0.2814707697442357</v>
+        <v>0.3041142524947457</v>
       </c>
       <c r="P17">
-        <v>0.2202031668645185</v>
+        <v>0.2435009622813764</v>
       </c>
       <c r="Q17">
-        <v>5.6947223716635</v>
+        <v>4.597621902597999</v>
       </c>
       <c r="R17">
-        <v>34.168334229981</v>
+        <v>27.58573141558799</v>
       </c>
       <c r="S17">
-        <v>0.07501155647089065</v>
+        <v>0.03421938113286312</v>
       </c>
       <c r="T17">
-        <v>0.06649131953431686</v>
+        <v>0.03040522580211193</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.395809</v>
+        <v>0.3553746666666666</v>
       </c>
       <c r="H18">
-        <v>1.187427</v>
+        <v>1.066124</v>
       </c>
       <c r="I18">
-        <v>0.2664985658690295</v>
+        <v>0.1125214647197581</v>
       </c>
       <c r="J18">
-        <v>0.301954420007166</v>
+        <v>0.1248669636343257</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>6.493894666666667</v>
+        <v>0.882742</v>
       </c>
       <c r="N18">
-        <v>19.481684</v>
+        <v>2.648226</v>
       </c>
       <c r="O18">
-        <v>0.1270432658722128</v>
+        <v>0.02075027117909931</v>
       </c>
       <c r="P18">
-        <v>0.1490847317785038</v>
+        <v>0.02492177343676531</v>
       </c>
       <c r="Q18">
-        <v>2.570341954118667</v>
+        <v>0.3137041440026666</v>
       </c>
       <c r="R18">
-        <v>23.133077587068</v>
+        <v>2.823337296024</v>
       </c>
       <c r="S18">
-        <v>0.03385684815826252</v>
+        <v>0.002334850906404436</v>
       </c>
       <c r="T18">
-        <v>0.04501679371610202</v>
+        <v>0.003111906177431477</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,14 +1582,14 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
         <v>3</v>
       </c>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.395809</v>
+        <v>0.3553746666666666</v>
       </c>
       <c r="H19">
-        <v>1.187427</v>
+        <v>1.066124</v>
       </c>
       <c r="I19">
-        <v>0.2664985658690295</v>
+        <v>0.1125214647197581</v>
       </c>
       <c r="J19">
-        <v>0.301954420007166</v>
+        <v>0.1248669636343257</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.460941333333333</v>
+        <v>3.994844666666667</v>
       </c>
       <c r="N19">
-        <v>16.382824</v>
+        <v>11.984534</v>
       </c>
       <c r="O19">
-        <v>0.1068350900861377</v>
+        <v>0.09390525221606305</v>
       </c>
       <c r="P19">
-        <v>0.1253705235037399</v>
+        <v>0.1127833655787726</v>
       </c>
       <c r="Q19">
-        <v>2.161489728205333</v>
+        <v>1.419666591801778</v>
       </c>
       <c r="R19">
-        <v>19.453407553848</v>
+        <v>12.776999326216</v>
       </c>
       <c r="S19">
-        <v>0.02847139829244428</v>
+        <v>0.01056635652422972</v>
       </c>
       <c r="T19">
-        <v>0.03785618371056656</v>
+        <v>0.01408291640828146</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,10 +1644,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.3671865</v>
+        <v>0.2197905</v>
       </c>
       <c r="H20">
-        <v>0.7343729999999999</v>
+        <v>0.439581</v>
       </c>
       <c r="I20">
-        <v>0.2472270101399119</v>
+        <v>0.06959176134714533</v>
       </c>
       <c r="J20">
-        <v>0.1867459416738229</v>
+        <v>0.05148476606974473</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>8.2840475</v>
+        <v>8.424749</v>
       </c>
       <c r="N20">
-        <v>16.568095</v>
+        <v>16.849498</v>
       </c>
       <c r="O20">
-        <v>0.162064909128062</v>
+        <v>0.1980372819757593</v>
       </c>
       <c r="P20">
-        <v>0.1267883207199013</v>
+        <v>0.1585662899160533</v>
       </c>
       <c r="Q20">
-        <v>3.04179040735875</v>
+        <v>1.8516797950845</v>
       </c>
       <c r="R20">
-        <v>12.167161629435</v>
+        <v>7.406719180338</v>
       </c>
       <c r="S20">
-        <v>0.04006682293232727</v>
+        <v>0.01378176326509437</v>
       </c>
       <c r="T20">
-        <v>0.02367720434608064</v>
+        <v>0.008163748342875327</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,10 +1706,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.3671865</v>
+        <v>0.2197905</v>
       </c>
       <c r="H21">
-        <v>0.7343729999999999</v>
+        <v>0.439581</v>
       </c>
       <c r="I21">
-        <v>0.2472270101399119</v>
+        <v>0.06959176134714533</v>
       </c>
       <c r="J21">
-        <v>0.1867459416738229</v>
+        <v>0.05148476606974473</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>31.672871</v>
       </c>
       <c r="O21">
-        <v>0.2065440016062932</v>
+        <v>0.2481739331426511</v>
       </c>
       <c r="P21">
-        <v>0.2423785067907964</v>
+        <v>0.2980652388254983</v>
       </c>
       <c r="Q21">
-        <v>3.8766168824805</v>
+        <v>2.3204653845085</v>
       </c>
       <c r="R21">
-        <v>23.259701294883</v>
+        <v>13.922792307051</v>
       </c>
       <c r="S21">
-        <v>0.05106325597945705</v>
+        <v>0.01727086112784578</v>
       </c>
       <c r="T21">
-        <v>0.04526320249214236</v>
+        <v>0.01534581909445338</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,10 +1768,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.3671865</v>
+        <v>0.2197905</v>
       </c>
       <c r="H22">
-        <v>0.7343729999999999</v>
+        <v>0.439581</v>
       </c>
       <c r="I22">
-        <v>0.2472270101399119</v>
+        <v>0.06959176134714533</v>
       </c>
       <c r="J22">
-        <v>0.1867459416738229</v>
+        <v>0.05148476606974473</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5.931556333333333</v>
+        <v>5.743874333333333</v>
       </c>
       <c r="N22">
-        <v>17.794669</v>
+        <v>17.231623</v>
       </c>
       <c r="O22">
-        <v>0.1160419635630586</v>
+        <v>0.1350190089916815</v>
       </c>
       <c r="P22">
-        <v>0.13617475034254</v>
+        <v>0.1621623699615343</v>
       </c>
       <c r="Q22">
-        <v>2.1779874095895</v>
+        <v>1.2624490116605</v>
       </c>
       <c r="R22">
-        <v>13.067924457537</v>
+        <v>7.574694069963</v>
       </c>
       <c r="S22">
-        <v>0.02868870770245958</v>
+        <v>0.009396210651077172</v>
       </c>
       <c r="T22">
-        <v>0.02543008198491537</v>
+        <v>0.008348891682784992</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,10 +1830,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.3671865</v>
+        <v>0.2197905</v>
       </c>
       <c r="H23">
-        <v>0.7343729999999999</v>
+        <v>0.439581</v>
       </c>
       <c r="I23">
-        <v>0.2472270101399119</v>
+        <v>0.06959176134714533</v>
       </c>
       <c r="J23">
-        <v>0.1867459416738229</v>
+        <v>0.05148476606974473</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>14.3875515</v>
+        <v>12.9373935</v>
       </c>
       <c r="N23">
-        <v>28.775103</v>
+        <v>25.874787</v>
       </c>
       <c r="O23">
-        <v>0.2814707697442357</v>
+        <v>0.3041142524947457</v>
       </c>
       <c r="P23">
-        <v>0.2202031668645185</v>
+        <v>0.2435009622813764</v>
       </c>
       <c r="Q23">
-        <v>5.28291467885475</v>
+        <v>2.84351618606175</v>
       </c>
       <c r="R23">
-        <v>21.131658715419</v>
+        <v>11.374064744247</v>
       </c>
       <c r="S23">
-        <v>0.06958717684564698</v>
+        <v>0.02116384648187983</v>
       </c>
       <c r="T23">
-        <v>0.04112204775567246</v>
+        <v>0.0125365900808144</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,13 +1892,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E24">
         <v>2</v>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.3671865</v>
+        <v>0.2197905</v>
       </c>
       <c r="H24">
-        <v>0.7343729999999999</v>
+        <v>0.439581</v>
       </c>
       <c r="I24">
-        <v>0.2472270101399119</v>
+        <v>0.06959176134714533</v>
       </c>
       <c r="J24">
-        <v>0.1867459416738229</v>
+        <v>0.05148476606974473</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>6.493894666666667</v>
+        <v>0.882742</v>
       </c>
       <c r="N24">
-        <v>19.481684</v>
+        <v>2.648226</v>
       </c>
       <c r="O24">
-        <v>0.1270432658722128</v>
+        <v>0.02075027117909931</v>
       </c>
       <c r="P24">
-        <v>0.1490847317785038</v>
+        <v>0.02492177343676531</v>
       </c>
       <c r="Q24">
-        <v>2.384470454022</v>
+        <v>0.194018305551</v>
       </c>
       <c r="R24">
-        <v>14.306822724132</v>
+        <v>1.164109833306</v>
       </c>
       <c r="S24">
-        <v>0.03140852677999707</v>
+        <v>0.001444047919784427</v>
       </c>
       <c r="T24">
-        <v>0.027840968625166</v>
+        <v>0.00128309167543504</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,14 +1954,14 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
         <v>2</v>
       </c>
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.3671865</v>
+        <v>0.2197905</v>
       </c>
       <c r="H25">
-        <v>0.7343729999999999</v>
+        <v>0.439581</v>
       </c>
       <c r="I25">
-        <v>0.2472270101399119</v>
+        <v>0.06959176134714533</v>
       </c>
       <c r="J25">
-        <v>0.1867459416738229</v>
+        <v>0.05148476606974473</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>5.460941333333333</v>
+        <v>3.994844666666667</v>
       </c>
       <c r="N25">
-        <v>16.382824</v>
+        <v>11.984534</v>
       </c>
       <c r="O25">
-        <v>0.1068350900861377</v>
+        <v>0.09390525221606305</v>
       </c>
       <c r="P25">
-        <v>0.1253705235037399</v>
+        <v>0.1127833655787726</v>
       </c>
       <c r="Q25">
-        <v>2.005183934892</v>
+        <v>0.878028906709</v>
       </c>
       <c r="R25">
-        <v>12.031103609352</v>
+        <v>5.268173440254</v>
       </c>
       <c r="S25">
-        <v>0.02641251990002398</v>
+        <v>0.00653503190146375</v>
       </c>
       <c r="T25">
-        <v>0.02341243646984606</v>
+        <v>0.005806625193381607</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,31 +2016,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.4331153333333333</v>
+        <v>1.444081666666667</v>
       </c>
       <c r="H26">
-        <v>1.299346</v>
+        <v>4.332245</v>
       </c>
       <c r="I26">
-        <v>0.291616954615029</v>
+        <v>0.4572362623154984</v>
       </c>
       <c r="J26">
-        <v>0.3304146426000344</v>
+        <v>0.507402777603721</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>8.2840475</v>
+        <v>8.424749</v>
       </c>
       <c r="N26">
-        <v>16.568095</v>
+        <v>16.849498</v>
       </c>
       <c r="O26">
-        <v>0.162064909128062</v>
+        <v>0.1980372819757593</v>
       </c>
       <c r="P26">
-        <v>0.1267883207199013</v>
+        <v>0.1585662899160533</v>
       </c>
       <c r="Q26">
-        <v>3.587947994311666</v>
+        <v>12.16602557716833</v>
       </c>
       <c r="R26">
-        <v>21.52768796587</v>
+        <v>72.99615346301</v>
       </c>
       <c r="S26">
-        <v>0.04726087524988683</v>
+        <v>0.09054982660971661</v>
       </c>
       <c r="T26">
-        <v>0.04189271767652473</v>
+        <v>0.08045697593772233</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,31 +2078,31 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F27">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>0.4331153333333333</v>
+        <v>1.444081666666667</v>
       </c>
       <c r="H27">
-        <v>1.299346</v>
+        <v>4.332245</v>
       </c>
       <c r="I27">
-        <v>0.291616954615029</v>
+        <v>0.4572362623154984</v>
       </c>
       <c r="J27">
-        <v>0.3304146426000344</v>
+        <v>0.507402777603721</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>31.672871</v>
       </c>
       <c r="O27">
-        <v>0.2065440016062932</v>
+        <v>0.2481739331426511</v>
       </c>
       <c r="P27">
-        <v>0.2423785067907964</v>
+        <v>0.2980652388254983</v>
       </c>
       <c r="Q27">
-        <v>4.572668693596222</v>
+        <v>15.24607078059944</v>
       </c>
       <c r="R27">
-        <v>41.154018242366</v>
+        <v>137.214637025395</v>
       </c>
       <c r="S27">
-        <v>0.06023173274242889</v>
+        <v>0.1134741215942822</v>
       </c>
       <c r="T27">
-        <v>0.08008540769521102</v>
+        <v>0.1512391300871743</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,31 +2140,31 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F28">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>0.4331153333333333</v>
+        <v>1.444081666666667</v>
       </c>
       <c r="H28">
-        <v>1.299346</v>
+        <v>4.332245</v>
       </c>
       <c r="I28">
-        <v>0.291616954615029</v>
+        <v>0.4572362623154984</v>
       </c>
       <c r="J28">
-        <v>0.3304146426000344</v>
+        <v>0.507402777603721</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>5.931556333333333</v>
+        <v>5.743874333333333</v>
       </c>
       <c r="N28">
-        <v>17.794669</v>
+        <v>17.231623</v>
       </c>
       <c r="O28">
-        <v>0.1160419635630586</v>
+        <v>0.1350190089916815</v>
       </c>
       <c r="P28">
-        <v>0.13617475034254</v>
+        <v>0.1621623699615343</v>
       </c>
       <c r="Q28">
-        <v>2.569047998497111</v>
+        <v>8.29462362040389</v>
       </c>
       <c r="R28">
-        <v>23.121431986474</v>
+        <v>74.651612583635</v>
       </c>
       <c r="S28">
-        <v>0.03383980402180731</v>
+        <v>0.06173558701289913</v>
       </c>
       <c r="T28">
-        <v>0.04499413146557926</v>
+        <v>0.08228163694128469</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,31 +2202,31 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F29">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>0.4331153333333333</v>
+        <v>1.444081666666667</v>
       </c>
       <c r="H29">
-        <v>1.299346</v>
+        <v>4.332245</v>
       </c>
       <c r="I29">
-        <v>0.291616954615029</v>
+        <v>0.4572362623154984</v>
       </c>
       <c r="J29">
-        <v>0.3304146426000344</v>
+        <v>0.507402777603721</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>14.3875515</v>
+        <v>12.9373935</v>
       </c>
       <c r="N29">
-        <v>28.775103</v>
+        <v>25.874787</v>
       </c>
       <c r="O29">
-        <v>0.2814707697442357</v>
+        <v>0.3041142524947457</v>
       </c>
       <c r="P29">
-        <v>0.2202031668645185</v>
+        <v>0.2435009622813764</v>
       </c>
       <c r="Q29">
-        <v>6.231469163773</v>
+        <v>18.6826527678025</v>
       </c>
       <c r="R29">
-        <v>37.388814982638</v>
+        <v>112.095916606815</v>
       </c>
       <c r="S29">
-        <v>0.08208164868596206</v>
+        <v>0.1390520641275692</v>
       </c>
       <c r="T29">
-        <v>0.07275835067893562</v>
+        <v>0.1235530646107493</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,31 +2264,31 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F30">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>0.4331153333333333</v>
+        <v>1.444081666666667</v>
       </c>
       <c r="H30">
-        <v>1.299346</v>
+        <v>4.332245</v>
       </c>
       <c r="I30">
-        <v>0.291616954615029</v>
+        <v>0.4572362623154984</v>
       </c>
       <c r="J30">
-        <v>0.3304146426000344</v>
+        <v>0.507402777603721</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>6.493894666666667</v>
+        <v>0.882742</v>
       </c>
       <c r="N30">
-        <v>19.481684</v>
+        <v>2.648226</v>
       </c>
       <c r="O30">
-        <v>0.1270432658722128</v>
+        <v>0.02075027117909931</v>
       </c>
       <c r="P30">
-        <v>0.1490847317785038</v>
+        <v>0.02492177343676531</v>
       </c>
       <c r="Q30">
-        <v>2.812605353184889</v>
+        <v>1.274751538596667</v>
       </c>
       <c r="R30">
-        <v>25.313448178664</v>
+        <v>11.47276384737</v>
       </c>
       <c r="S30">
-        <v>0.03704797029800213</v>
+        <v>0.009487776435964379</v>
       </c>
       <c r="T30">
-        <v>0.04925977836771633</v>
+        <v>0.01264537706462535</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1.444081666666667</v>
+      </c>
+      <c r="H31">
+        <v>4.332245</v>
+      </c>
+      <c r="I31">
+        <v>0.4572362623154984</v>
+      </c>
+      <c r="J31">
+        <v>0.507402777603721</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>3.994844666666667</v>
+      </c>
+      <c r="N31">
+        <v>11.984534</v>
+      </c>
+      <c r="O31">
+        <v>0.09390525221606305</v>
+      </c>
+      <c r="P31">
+        <v>0.1127833655787726</v>
+      </c>
+      <c r="Q31">
+        <v>5.768881944314445</v>
+      </c>
+      <c r="R31">
+        <v>51.91993749883</v>
+      </c>
+      <c r="S31">
+        <v>0.04293688653506684</v>
+      </c>
+      <c r="T31">
+        <v>0.05722659296216511</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.2889493333333333</v>
+      </c>
+      <c r="H32">
+        <v>0.8668480000000001</v>
+      </c>
+      <c r="I32">
+        <v>0.0914893639477142</v>
+      </c>
+      <c r="J32">
+        <v>0.1015272873441438</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>8.424749</v>
+      </c>
+      <c r="N32">
+        <v>16.849498</v>
+      </c>
+      <c r="O32">
+        <v>0.1980372819757593</v>
+      </c>
+      <c r="P32">
+        <v>0.1585662899160533</v>
+      </c>
+      <c r="Q32">
+        <v>2.434325607050667</v>
+      </c>
+      <c r="R32">
+        <v>14.605953642304</v>
+      </c>
+      <c r="S32">
+        <v>0.01811830496589635</v>
+      </c>
+      <c r="T32">
+        <v>0.01609880527940196</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.2889493333333333</v>
+      </c>
+      <c r="H33">
+        <v>0.8668480000000001</v>
+      </c>
+      <c r="I33">
+        <v>0.0914893639477142</v>
+      </c>
+      <c r="J33">
+        <v>0.1015272873441438</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>10.55762366666667</v>
+      </c>
+      <c r="N33">
+        <v>31.672871</v>
+      </c>
+      <c r="O33">
+        <v>0.2481739331426511</v>
+      </c>
+      <c r="P33">
+        <v>0.2980652388254983</v>
+      </c>
+      <c r="Q33">
+        <v>3.050618320067556</v>
+      </c>
+      <c r="R33">
+        <v>27.455564880608</v>
+      </c>
+      <c r="S33">
+        <v>0.0227052752916237</v>
+      </c>
+      <c r="T33">
+        <v>0.03026175514953722</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.2889493333333333</v>
+      </c>
+      <c r="H34">
+        <v>0.8668480000000001</v>
+      </c>
+      <c r="I34">
+        <v>0.0914893639477142</v>
+      </c>
+      <c r="J34">
+        <v>0.1015272873441438</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>5.743874333333333</v>
+      </c>
+      <c r="N34">
+        <v>17.231623</v>
+      </c>
+      <c r="O34">
+        <v>0.1350190089916815</v>
+      </c>
+      <c r="P34">
+        <v>0.1621623699615343</v>
+      </c>
+      <c r="Q34">
+        <v>1.659688659367111</v>
+      </c>
+      <c r="R34">
+        <v>14.937197934304</v>
+      </c>
+      <c r="S34">
+        <v>0.01235280325349965</v>
+      </c>
+      <c r="T34">
+        <v>0.01646390553149205</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.2889493333333333</v>
+      </c>
+      <c r="H35">
+        <v>0.8668480000000001</v>
+      </c>
+      <c r="I35">
+        <v>0.0914893639477142</v>
+      </c>
+      <c r="J35">
+        <v>0.1015272873441438</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>12.9373935</v>
+      </c>
+      <c r="N35">
+        <v>25.874787</v>
+      </c>
+      <c r="O35">
+        <v>0.3041142524947457</v>
+      </c>
+      <c r="P35">
+        <v>0.2435009622813764</v>
+      </c>
+      <c r="Q35">
+        <v>3.738251226896</v>
+      </c>
+      <c r="R35">
+        <v>22.429507361376</v>
+      </c>
+      <c r="S35">
+        <v>0.02782321952817884</v>
+      </c>
+      <c r="T35">
+        <v>0.02472199216611682</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>2</v>
-      </c>
-      <c r="F31">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G31">
-        <v>0.4331153333333333</v>
-      </c>
-      <c r="H31">
-        <v>1.299346</v>
-      </c>
-      <c r="I31">
-        <v>0.291616954615029</v>
-      </c>
-      <c r="J31">
-        <v>0.3304146426000344</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>5.460941333333333</v>
-      </c>
-      <c r="N31">
-        <v>16.382824</v>
-      </c>
-      <c r="O31">
-        <v>0.1068350900861377</v>
-      </c>
-      <c r="P31">
-        <v>0.1253705235037399</v>
-      </c>
-      <c r="Q31">
-        <v>2.365217425900444</v>
-      </c>
-      <c r="R31">
-        <v>21.286956833104</v>
-      </c>
-      <c r="S31">
-        <v>0.03115492361694176</v>
-      </c>
-      <c r="T31">
-        <v>0.04142425671606745</v>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.2889493333333333</v>
+      </c>
+      <c r="H36">
+        <v>0.8668480000000001</v>
+      </c>
+      <c r="I36">
+        <v>0.0914893639477142</v>
+      </c>
+      <c r="J36">
+        <v>0.1015272873441438</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.882742</v>
+      </c>
+      <c r="N36">
+        <v>2.648226</v>
+      </c>
+      <c r="O36">
+        <v>0.02075027117909931</v>
+      </c>
+      <c r="P36">
+        <v>0.02492177343676531</v>
+      </c>
+      <c r="Q36">
+        <v>0.2550677124053333</v>
+      </c>
+      <c r="R36">
+        <v>2.295609411648</v>
+      </c>
+      <c r="S36">
+        <v>0.001898429111918382</v>
+      </c>
+      <c r="T36">
+        <v>0.002530240052840122</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.2889493333333333</v>
+      </c>
+      <c r="H37">
+        <v>0.8668480000000001</v>
+      </c>
+      <c r="I37">
+        <v>0.0914893639477142</v>
+      </c>
+      <c r="J37">
+        <v>0.1015272873441438</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>3.994844666666667</v>
+      </c>
+      <c r="N37">
+        <v>11.984534</v>
+      </c>
+      <c r="O37">
+        <v>0.09390525221606305</v>
+      </c>
+      <c r="P37">
+        <v>0.1127833655787726</v>
+      </c>
+      <c r="Q37">
+        <v>1.154307703203556</v>
+      </c>
+      <c r="R37">
+        <v>10.388769328832</v>
+      </c>
+      <c r="S37">
+        <v>0.008591331796597289</v>
+      </c>
+      <c r="T37">
+        <v>0.01145058916475566</v>
       </c>
     </row>
   </sheetData>
